--- a/output/3_Regression/analysis_01/c19/coef_ridge_c19.xlsx
+++ b/output/3_Regression/analysis_01/c19/coef_ridge_c19.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Headline CPI_lag_1</t>
+          <t>Headline CPI_lag_3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.006336654450670364</v>
+        <v>0.01257502253531613</v>
       </c>
     </row>
     <row r="3">
@@ -468,1619 +468,1619 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.005682218043906177</v>
+        <v>0.01165827497167098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Headline CPI_lag_3</t>
+          <t>Headline CPI_lag_1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.005056422974833307</v>
+        <v>0.01097931053443727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.003945295736845324</v>
+        <v>0.01058515646248997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.003677539202672989</v>
+        <v>0.01025604459385098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003154464812791432</v>
+        <v>0.00997054720705484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.003087877926510448</v>
+        <v>-0.007456892451106758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.002780584697460275</v>
+        <v>-0.007423668736130721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.002634653555377068</v>
+        <v>-0.007390677817930485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.002432440167309419</v>
+        <v>0.007118704641238886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_3</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.002430669260707673</v>
+        <v>0.007027939023883413</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.002224960776601302</v>
+        <v>0.006638571845436925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.002221567960121728</v>
+        <v>0.005575836553573241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_3</t>
+          <t>Terms of Trade - Imports_lag_3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002151059337864078</v>
+        <v>-0.005519888290010224</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_2</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.002077709136251955</v>
+        <v>0.005294265703913247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001983466977376737</v>
+        <v>0.005075406050672455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_2</t>
+          <t>Terms of Trade - Imports_lag_2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001979113770552229</v>
+        <v>-0.005006763703530578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001885434410778022</v>
+        <v>-0.004103530552787776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.001837722910759234</v>
+        <v>-0.003717410745865346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_1</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.001781663377844952</v>
+        <v>-0.003714859019508437</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.00177322246247193</v>
+        <v>0.003330903050974242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001761724539154364</v>
+        <v>0.003292197851998506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_1</t>
+          <t>Private Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.00171608108582994</v>
+        <v>0.003031072115796155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001569945880053808</v>
+        <v>-0.003027573021190659</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001376231196869185</v>
+        <v>-0.002972568523591161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
+          <t>Coffee Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.001295632313824092</v>
+        <v>-0.002844129321807528</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001270339425971666</v>
+        <v>0.002573228134992284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001212688593969717</v>
+        <v>-0.00255059607547173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
+          <t>Terms of Trade - Exports_lag_1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.00118183370228988</v>
+        <v>0.002381913478528322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
+          <t>Copper Price (¢US$ per lb)_lag_1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.001165731413111688</v>
+        <v>0.002351219925686793</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_1</t>
+          <t>Reserve Requirement Rate_lag_1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.001165320324935575</v>
+        <v>0.002301545262215107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.001162421926734855</v>
+        <v>0.002291227726387841</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.001154227851806508</v>
+        <v>-0.002250313554126598</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.001110808001215676</v>
+        <v>-0.002242851496682825</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.001095658093550056</v>
+        <v>-0.002209636200397424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
+          <t>General Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.001076458395075317</v>
+        <v>-0.002143528253642135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.001071408162343934</v>
+        <v>0.002142155528424931</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001023214000921549</v>
+        <v>0.002138365415658875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.001008155435490675</v>
+        <v>-0.002095081584881719</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_2</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.0008867634277224746</v>
+        <v>0.002037226624665717</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.0008394979087780641</v>
+        <v>0.002031010098763949</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.0008298643504103624</v>
+        <v>0.001960770211477167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0008203414024012736</v>
+        <v>-0.001943590450026497</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_3</t>
+          <t>General Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0008195947244349497</v>
+        <v>-0.001939714522315472</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.0007833221236020268</v>
+        <v>-0.001917025484553597</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
+          <t>Corn Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.0007676946768147952</v>
+        <v>0.001881727829439156</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.000766737140441585</v>
+        <v>0.001834912283470273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
+          <t>Wheat Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.0007655073694630495</v>
+        <v>-0.001780052428491173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0006818925736988472</v>
+        <v>0.001779812247704595</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_3</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0006718706727564885</v>
+        <v>0.00173577821023577</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Coffee Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0006599784796578109</v>
+        <v>-0.001726637804151406</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.0006503970893946552</v>
+        <v>-0.00171870375021427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
+          <t>GDP - Fishing_lag_1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0006454330728137569</v>
+        <v>-0.00168639453657134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0006309915750442911</v>
+        <v>-0.001678588400301255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0006223140490056737</v>
+        <v>0.001613397298033478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Wheat Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0006167609064587628</v>
+        <v>-0.001608181737434667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_2</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0006101904583329431</v>
+        <v>-0.001568997787912463</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.0006097753579483292</v>
+        <v>0.001554299727499939</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_1</t>
+          <t>Terms of Trade - Exports_lag_2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.0005953088069177568</v>
+        <v>0.001546538308357965</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_3</t>
+          <t>Private Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.0005875062159150927</v>
+        <v>0.001543772683243715</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0005854255695950864</v>
+        <v>-0.001543659953936635</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_1</t>
+          <t>Coffee Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.0005752864624236226</v>
+        <v>-0.001537013721469135</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.0005738044136273272</v>
+        <v>-0.001491856847851758</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0005508308177730243</v>
+        <v>0.001471550004809817</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.000549845513126909</v>
+        <v>-0.001427728021836113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_1</t>
+          <t>Underemployed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.0005471768516803327</v>
+        <v>0.001399627878527621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0005428833765142875</v>
+        <v>0.001371904046005415</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.0005385810353295509</v>
+        <v>0.001341946123570373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_3</t>
+          <t>Terms of Trade - Imports_lag_1</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0005338433446069421</v>
+        <v>-0.001328992120508853</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_2</t>
+          <t>Public Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.0005243248365296444</v>
+        <v>0.00132847828817779</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
+          <t>GDP - Agriculture_lag_3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.0005132505727540865</v>
+        <v>0.001324556554913689</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_2</t>
+          <t>Terms of Trade - Exports_lag_3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.0005101156441671612</v>
+        <v>0.001272400878564993</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_2</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.0005002491696333474</v>
+        <v>0.001243435696533734</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_1</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.0004836328430820644</v>
+        <v>-0.001242764886021287</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.0004832706956540914</v>
+        <v>0.001234878969125652</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.00047123540711665</v>
+        <v>0.001234656563267105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0004710101494806823</v>
+        <v>0.001198574014287153</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_1</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0004696233144199422</v>
+        <v>-0.001156671883282597</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.0004674964875620785</v>
+        <v>-0.001156224362264564</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0004665793528750927</v>
+        <v>-0.001143152163842679</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.0004661583315937967</v>
+        <v>0.001135787624280684</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.00046570204199261</v>
+        <v>-0.001133373675198984</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Monetary Policy Rate_lag_3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0004521754041810086</v>
+        <v>-0.001071685752401632</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0004482814758873997</v>
+        <v>0.001067138069182662</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.0004405105529569506</v>
+        <v>0.00106035137431425</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.0004358538604505863</v>
+        <v>0.001059792105241271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
+          <t>Gold (US$ per oz troy)_lag_2</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0004347662554900308</v>
+        <v>-0.001012848497834254</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.0004287564050929423</v>
+        <v>0.001009694170134215</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.0004283191762820861</v>
+        <v>-0.0009980572152237606</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
+          <t>Monetary Policy Rate_lag_2</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.000419911982837042</v>
+        <v>-0.0009978956146249221</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.0004156907569004959</v>
+        <v>-0.0009941669874809151</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0004121189607866737</v>
+        <v>-0.0009812287124075991</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
+          <t>Monthly Income (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0004080404146632933</v>
+        <v>0.0009776871945955683</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.0004058842684585446</v>
+        <v>0.0009701053358151133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.000404177019242694</v>
+        <v>-0.0009367351090947473</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_2</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0004040111328409069</v>
+        <v>-0.0009342067768017138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0003969463891448006</v>
+        <v>-0.0009180218589180158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_2</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0003965565359984999</v>
+        <v>0.0009080924163842531</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
+          <t>GDP - Agriculture_lag_2</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0003899608080276444</v>
+        <v>0.0009079874811634729</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
+          <t>GDP - Fishing_lag_2</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-0.000386063255632015</v>
+        <v>0.0008732496023349177</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0003851371892343663</v>
+        <v>0.0008618034630252472</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_2</t>
+          <t>GDP - Mining_lag_2</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0003833480443759732</v>
+        <v>0.0008527968995600638</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0003782267334391676</v>
+        <v>0.0008515256584350517</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_1</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.0003737367896118755</v>
+        <v>0.0008456645689501851</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_2</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.000371639320422953</v>
+        <v>0.0008366500808176951</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_1</t>
+          <t>Private Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.0003698205823529046</v>
+        <v>-0.0008223275238695318</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-0.0003675335748710708</v>
+        <v>0.0008141274330743402</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_3</t>
+          <t>Business Expectations - Demand (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.0003625688030099975</v>
+        <v>0.0008115565369389412</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_1</t>
+          <t>Monetary Policy Rate_lag_1</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0003568618974033059</v>
+        <v>-0.0007911301559101619</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_3</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0003533351044941238</v>
+        <v>0.000761577996063298</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
+          <t>Business Expectations - Sector (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0003467701078869979</v>
+        <v>-0.0007495494558458006</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-0.0003459447096953897</v>
+        <v>0.0007181999771129798</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_1</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0003433539722351368</v>
+        <v>-0.0007074050253368686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_3</t>
+          <t>Electricity Production - Lima (GWh)_lag_2</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-0.0003431114089724697</v>
+        <v>-0.0007023551656801946</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.0003350156662789736</v>
+        <v>-0.0006882965166758103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_3</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0003298259234598197</v>
+        <v>0.0006766447663155591</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-0.0003231007971666913</v>
+        <v>-0.0006670703162693208</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_1</t>
+          <t>Business Expectations - Orders (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0003171111438206627</v>
+        <v>-0.000664615879474686</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
+          <t>GDP - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0003152565076726621</v>
+        <v>-0.0006254963806444715</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_3</t>
+          <t>Business Expectations - Demand (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0003119195760684193</v>
+        <v>0.0006246781111359807</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
+          <t>General Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-0.0003099592120730273</v>
+        <v>-0.0006212790654192242</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.000308047420901952</v>
+        <v>-0.000618228537479564</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.0003044494210642268</v>
+        <v>0.0005809294088518992</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.0003023362471845672</v>
+        <v>0.0005738114815894272</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_3</t>
+          <t>GDP - Mining_lag_1</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0002987154784008355</v>
+        <v>0.0005709870301879178</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0002941555353087375</v>
+        <v>0.0005699377377304426</v>
       </c>
     </row>
     <row r="128">
@@ -2093,813 +2093,813 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.000287792261545093</v>
+        <v>-0.0005688690846390959</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0002862403306713106</v>
+        <v>0.0005304883867370718</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.0002848318963461771</v>
+        <v>0.0005218150084685129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_2</t>
+          <t>GDP - Other Services (index 2007=100)_lag_3</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.0002836634081732736</v>
+        <v>0.0005103383123291597</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.0002804649425383092</v>
+        <v>0.0005008544253599842</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.0002759116046843754</v>
+        <v>-0.0004985357806504545</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Employment Ratio (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0002742137133606637</v>
+        <v>-0.0004947788808564457</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
+          <t>Business Expectations - Orders (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.0002718840697179193</v>
+        <v>0.0004886741422902938</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_2</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.0002687687972461543</v>
+        <v>0.0004753437864448756</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_2</t>
+          <t>Business Expectations - Orders (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.0002662171816374772</v>
+        <v>0.0004730326523776226</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_3</t>
+          <t>Business Expectations - Demand (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.0002605947212895135</v>
+        <v>0.0004609814928694171</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_1</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.0002589836895986771</v>
+        <v>-0.0004586131547723806</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_3</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.0002564046365943536</v>
+        <v>0.0004440548433748055</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_3</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.0002547474943479163</v>
+        <v>0.0004345712995557047</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.0002491543200782299</v>
+        <v>0.0004248348321890397</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.0002454626674011981</v>
+        <v>0.0004242415497553306</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_2</t>
+          <t>Underemployed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-0.000243859171967912</v>
+        <v>-0.0004222418198100548</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.0002348597096449893</v>
+        <v>0.0004148842285673248</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.0002327593282595245</v>
+        <v>0.0004111720638326587</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.0002126261025817592</v>
+        <v>-0.0004011394164417494</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_3</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.0001956026346190009</v>
+        <v>-0.0003935587799791597</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_3</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.0001955868238459391</v>
+        <v>-0.0003876670677806285</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.0001913748608913485</v>
+        <v>0.0003864236313460892</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_3</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.0001884340121207789</v>
+        <v>0.0003820834965764558</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
+          <t>Business Expectations - Current Situation_lag_2</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.0001861349325512486</v>
+        <v>-0.0003815998357635251</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_2</t>
+          <t>GDP - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.0001856929927841168</v>
+        <v>-0.0003744643064693698</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.0001787098225931541</v>
+        <v>-0.0003681047779002821</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_2</t>
+          <t>Fishmeal Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.0001624616173414814</v>
+        <v>0.0003578271920817915</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
+          <t>GDP - Construction_lag_1</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.0001565263458770661</v>
+        <v>-0.0003439437463293613</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.0001526348693044131</v>
+        <v>0.0003419284181957286</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
+          <t>GDP - Construction_lag_3</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.0001458281807785021</v>
+        <v>0.000341026928125663</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>GDP - Fishing_lag_3</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.0001448797253884653</v>
+        <v>0.0003311186749274926</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_2</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.0001389269673565297</v>
+        <v>0.0003268847365215377</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-0.0001389075440449178</v>
+        <v>-0.0003067609220995428</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_3</t>
+          <t>Business Expectations - Economy (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0001272081561878289</v>
+        <v>0.0003008058198967707</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_2</t>
+          <t>GDP - Construction_lag_2</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0001058980552683902</v>
+        <v>-0.0002955421784604741</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_3</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0001015707416776748</v>
+        <v>-0.0002690672982380416</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
+          <t>Business Expectations - Sector (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-9.544575627057921e-05</v>
+        <v>-0.0002677990371754366</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8.952128321863738e-05</v>
+        <v>0.0002639902672778119</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_3</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-8.828249295646351e-05</v>
+        <v>0.0002504090637445923</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-8.705341310090959e-05</v>
+        <v>-0.0002400946625586756</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>GDP Growth - Commerce (annual %)_lag_1</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>8.10981151893565e-05</v>
+        <v>-0.0002360352563500916</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-7.799455634067557e-05</v>
+        <v>0.0002282808942236317</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_3</t>
+          <t>Business Expectations - Economy (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-7.469657467095887e-05</v>
+        <v>-0.000224910681965948</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
+          <t>GDP - Mining_lag_3</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-6.989599769253146e-05</v>
+        <v>0.0002211294180420682</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_2</t>
+          <t>Public Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-6.722461230985064e-05</v>
+        <v>0.0002147293707137159</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-6.651678128346357e-05</v>
+        <v>-0.0001764942820367825</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_1</t>
+          <t>Chicken Placements (thousands)_lag_1</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6.571463168048196e-05</v>
+        <v>0.00015911576326454</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_1</t>
+          <t>Fishmeal Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5.74300998004464e-05</v>
+        <v>0.0001466458146117003</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
+          <t>GDP - Agriculture_lag_1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-5.501919984695728e-05</v>
+        <v>0.0001376255865478471</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_3</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-5.39458130985597e-05</v>
+        <v>0.0001177919398119767</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_2</t>
+          <t>Public Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-4.720715653944562e-05</v>
+        <v>0.0001126349019036945</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_2</t>
+          <t>Chicken Placements (thousands)_lag_3</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4.60798064103804e-05</v>
+        <v>9.01186508912207e-05</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-4.228650771764612e-05</v>
+        <v>-8.933038125173964e-05</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_1</t>
+          <t>GDP Growth - Commerce (annual %)_lag_2</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-3.160148936302899e-05</v>
+        <v>6.105792983273203e-05</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_1</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3.085157049661988e-05</v>
+        <v>5.188205672758001e-05</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_1</t>
+          <t>Business Expectations - Sector (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2.969422251196309e-05</v>
+        <v>-4.912565597993342e-05</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.947356158613304e-05</v>
+        <v>2.847533138226434e-05</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_1</t>
+          <t>GDP - Other Services (index 2007=100)_lag_1</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-1.890017304717806e-05</v>
+        <v>2.625320137966222e-05</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>-1.665112923893391e-05</v>
+        <v>-2.186156627030105e-05</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_3</t>
+          <t>Electricity Production - Lima (GWh)_lag_1</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-9.61275419455931e-06</v>
+        <v>-1.703926251917626e-05</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_3</t>
+          <t>Chicken Placements (thousands)_lag_2</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-3.198528813164615e-06</v>
+        <v>1.18805166321048e-05</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-2.732052353987151e-06</v>
+        <v>9.520324342317912e-06</v>
       </c>
     </row>
   </sheetData>
